--- a/Testdata/TC_140.xlsx
+++ b/Testdata/TC_140.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>gjQAAB+LCAAAAAAAAAPtW+tv29YV/1cIfeqAyCRlObGNaxayZHvaLNu1lDnpl4Air20uFKnyYVvfEmBrnKbFFmQp0Gc27NGtW7sU7ZA2dtr/pbDk5FP+hZ374FOULXoJsBQOjJj3PO4999zz+PGGQa/vdUxhBzuuYVtzBXlCKgjY0mzdsLbmCr63WZQvFl5X0MKehs011VE72ANhAbQsd3bPNeYK257XnRXF3d3did3JCdvZEkuSJItXGstNbRt31KJhuZ5qabgQaumnaxUUVNU7DeypuuqpTHOuUG/WJ6rY0GpAa6iWuoWdiXnfNSzsuguWZ3gGdommg1UPV2uNX7GNKaWJixMyEofokeS8b5g6k0tIMjqXg2Vxy+hgpSTJ00VppihNtmRpdmp6VipNlC9OvxkohoJoWXW9JnZ2DI0Smp7a6VJ1aUaalKWpaamExEwhmCtygIJWTX0d7xgu1qvYNN1cHhH5AVY0D3adz5kSEmO6fKKzm7DkqN3tluGZOJ8Z6415oW1dEMjvDvyGaCkX4a+pOVkKTIzmVtCi7WAN3HomS1fw7qrDvd3qLgO3tW04Xq+m9nLPddnFzmqX+C6fqoJqtuVVTOx4l7sQAliHCAGG4jk+RuIIZqRUM1wNng3Lx7qyqZpuXCnBRBu2c93tqhpegfQWyRy7lmmrOsShZ7ieoUWLDjHQmmN3YUZYfN429UWYlQtnMMKZ6xa4mCw7b9vXI+uymIieKj1fONOO6gXiQ3TU3LZ3Vy2z1/TbruYYbazX5gPpTB4iecq1q77r2R2wIiIhRotRdF1sNMQe/IHsTDNRDWtGRzXXTHClq0zCXAkCqvievWl4Vdv0O5YbWJaiog3YVwvvhfsMx2gVjtgirretuhXIM2dnspIK6/ZuuOYwg7oiRq64WnDow4y0cA1owSEOc+i5kF0uGiY0j/iJxKjJ2GhuY+xlBgbjIFInF0k7UuZ7K36nDUnWhkzboau6SIz4CKIVIh7sUiRoMUX605KkWfoDdoRstGDpo+UCJoLlYmsp8hQSUyQEezLnTdW6DtQNw9teqQR7yeAg5oGR8sM8BPnbNdUeJYdeitNQ3dJMX8esLNStTRqixDZ2qCPZaIi0DJmuINXqtXpdKNquMevBw1wB2vis6zkAFAqKZvuW5/RI/UAiFz1Nx/XbFl1ANcfW2XTwWz7gk96ib2lVWx9/NZ1557JleONbaPsOK4rjq1DvkfrouzVMKg0t/WPra3n25Dq5xDsW7tiWoY3vbXAysV4/w0bcIKvG1sAsv8aWN6G7s+ZHcn1sNQfAJbS7XMtUXNfWDBqsPD30mL44ImVqeFP1TQB2HjTarbD2psmo4l5Py8RJ6LJjBhVQIbDZBdys6Z0JDSAEwYYTmt0hBBHg6kYTiXF5goM0vGBtLavWlg9II6wraXpYf0mXbDmq5ZLthMAiVYqzhVBQpxjgUVjxWvVpILDiZQMXiSk51MKdru2oZgMcYyzysOOoCQBJQ/W2+Qh6m4m1wMlipBpqJS0LDD9NjDYptg2S8LxMpohUiOyFIfRIJqIhsssGpKVZVU2j7bCqGrTyLB4cWAQRg/pLNpcTLgZnAG9p0H1/iXsEukcDTqchKwcMFsCkkCrN9fJ0qTwzOQPIhowR3fGSY7uuULM7mMA9ATCd7mue8NpSbe1n0PaoU3jjGUM+LokWg1pOl3sDbEpSkgKAKbYMaBXDgiEnUlDe8KH6YMfsxWTZjpZtDUT7Hz3pv/3b4z88OHr82eDGQf/G4fPDfbDx+eFttismhlpq28TUmtb89LQ0WYZACkmIeE+kCJhsktKuXqXANxwj/lpHB9WFenVpeZ4WjJAYqLOeIZI3xp7tR8MmM58uRM9MDI6aiSitoADxcYIb60EKeYPbwUnpOH+UIvPF8cFnxwdfjNTmDovAlDwzQ96PT8Va8C4sF+XSCKy1nCjyRLhclKaKpVJMOCWD1lmFD/1U1xV4056R4UVRDou1HsZtllCaxWdqqVtiSo+Rqgz/hCEQHwdMGvUtyIuQzfIgNmBOHPznztN/309Ice9ySnIWMI7iFLKYGAzo1CvrLaG5enm9uiC0FpokTiJeTI5NfoIwXz3MpHjQhJl2QYAGDg1LKDRU54LwC9/CF4Qm7l4Q4C2oEMvDRMhlUdly/9PEaYuhLPldVmdiChE1QzIqOFkaGUWH8qhvs6pPxM3Q4EXpiz9nKfC91CIAyy9DwjClNJTgMFKMz5d47+bR4x+OHj8ePLzb//ZmYga+TngZAGEPyRUfhlkAFZD3lxQFbTSpP69L12L9hBPJi9OabVieq0yV6DsTHyFQlcls9Deqd6DF0Ympv4CeoqCfq+7CnsfzXFlBYpIAdnZV6K529K4ZElhJj/z67JNPBx99M3j/4dNbn/ff+Xv/3fePDx48/fJPLAkH9x8O3vuSF/10X6C2kDdYBvoEeiuiCSQ5BdKrhR9v3BMs2xMAYgg+LVA/3vggNhkxlIKRaGaAcKEhSROGROPKRE+ImRLakNALVVjDr5KONhlK8J5mdw0tWuTNIpmKZB9lvFZvFX0XCzagJ+jnKeFIeVw9rsI67NolqSSXOJdZQ7bQVt2Y65dMu62aQsCgFw4pkYTWyQqRLF1vaXl1vrIciTAjVh0dOyQM2QMKICTpMHU3GAWhFqMAF4Ce5pvkjmhIbJgVzhyrZCK/bNms6KQIZl9NJCRQ1XccBo4sfrHf9LsAfoOLudF8elkZw7srDJvGEXA0rteSfBjHuNAXk2xCoHxamjiLlam6S+51GHxdIa6JhsBLXHCCO/jdPQNeOwYciUjqzoLj2E5m8Yk4gVgDkDNUFDHyeChDz5ShbD06q4AQFLwXg7anpPKlBNperNRnhZ6nzwp1aHmwNx8iN4D6CWLVJperKgN0wzD8jBOdgM8bY8LztFwWOm/Ylrc9EpuD7c8PP+x/901//5Ont74+OngHhkfffn705F7/0V/7998e7D8CyvGdfx3/807/9/tHTz4+/sv357D9xcB2+u8qY1yRMiRefvmwXZounw7budA5bB8Xtg+n4Jiw/ETF0bC7kRt2Z2qcCLuHTRsDdA8+3s8BujsjQXdnNOg+/uD7o29vvSjQLY8G3fK1WFsZBt1yqXyOus9R9yuFuuVz1P2qoO5U9fk/Rt3TyTvujTUAy2uOAWWsJ1QcqCYmBpDcALDsgCnwhD3VME1DA+TsQJ6vOpmg+2zznIC5Ny6OCbqHBLNQ9wbG10eC7sHt7/q/u3t08Gjwx8PBu7eg/D0/3IcNPT+8TdH3wdO/3QTo3b93k0DvBz8c3/4HPDy7dbf/1afHH/6GPN+7SegPvj5H4i8MiU9RhF06FYmT2/OiXH7ZF+iTU2NcoDOhcyQ+LhJnaSm0MSSsRVq36glNiA1HV88Az/PPNhqzb+TG7JkaJ2L2oaI0BmR/duOrMSF76iPBYeSeEhgB4EdPkx++l0bD99K1WH8ahu+TU1Pn8P0cvr9S8L30E4DvfO2fPH5PlZ+Xgt/F6OuWsDLaNWxiL9/n4GKk3bB3zqwLh59Xte6umjp3Zr4PdEK3RBPEv4kngfKSPolnMVhxHMBc5OvZ3N+wB199ravWVk4j2Q6pIvl8ClbnH5kvGo7rXSGNij8xytWQcpWB1yvkQ2r2QMdXldI0x6wgIcanFxN2Bjntsf+xYJvLRsfI+VGVFOR9chJwZrfL4F09XwSRnrOC9wB8xmaAatn+NfQT9hVintlYIEORDfXJl7+usbXt5TXsUlvFOm5LRa2NS8WyLk0XZzCeLMoy/K1qJRJY5LthPjlUFAPv5lxEDA4s+p9Eyn8B90dTy4I0AAA=</t>
+          <t>NTYAAB+LCAAAAAAAAAPtW1tvG8cV/isLPqWAqV2uSFkURhtQpKSyJSVFpCs7L8ZydyRttdxl9yKJbzbQxnKcoDVcB8jVLXpJmjapi6SwY8nJfwlEynnyX+iZmb1zKXEVG4gL2TK8c25z5sycc74drNDr+12d28WWrZnGfK4wJeQ4bCimqhlb8znX2cwXZnKvS2hxX8H6mmzJXeyAMAdahj23b2vzuW3H6c3x/N7e3tTe9JRpbfGiIBT4q81GS9nGXTmvGbYjGwrOBVrq2Vo5CVXVbhM7sio7MtOcz9Vb9akq1pQa0JqyIW9ha2rBtTUD2/ai4WiOhm2iaWHZwdVa81dsYZI4NTNVQPwIPZRccDVdZXIxSUb35GBa3Na6WBIFUcgLs3lRaAvlOfJTnBLKl9/0FQNB1JBtp4WtXU2hhJYjd3tUXZiFf2X4W0R8qhDYCgMgoVVdXce7mo3VKtZ1O1NEeG8DK4oDq84WTAHxEV3P0PldWLbk3nZbc3ScVX3JtLACgTrX3Ct4b9Xy4tfuNYDb3tYsp1+T+5ltXbGxtdoj0cimKqGaaTgVHVvOlR5sKlZhz4EhOZaLET+GGSrVNFuBZ81wsSptyrodVYox0YZp7dg9WcErkLA8sbFn6KaswslyNNvRlHDSEQZas8weWITJF0xdXQKrnnAKI7BcNyDEZNoF09wJvUtjInoG6GmAPe3Kji8+QketbXNv1dD7LbdjK5bWwWptwZdO5SGSeZ521bUdswtehCTEaBGKqvLNJt+HP5BvSSaqYUXryvqaDqG0pWmwFSOgiuuYm5pTNXW3a9i+Zwkq2oB1tfF+sM5gjFZhiw0SetOoG748C3YqK66wbu4Fc44yaCgi5Iqt+Js+ykgK14Dmb+Ioh+4LWeWSpkM7iO5IhBo/G61tjJ3Ug8E4iFS+JdJgpIX+itvtQJJ1INN26aw24kM+gtMKJx78kgRoGnn60xaEOfoDfgRstGio4+V8JoLpInNJhRLiEyQEa9IXdNnYAeqG5myvVPy1pHAQi8BY+VEegvzt6XKfkoMoRWmobii6q2JWFurGJj2ixDe2qWPZaITUgEyXkGz02/0elGFbm3PgYT4HjXnOdixo/TlJMV3DsfqkfiDeEz1Lx3Y7Bp1A1ifW2bTwb1xAHP0l11Cqpjr5bCqLzhVDcyb30HQtVhQnV6HRI/XRtWuYVBpa+ifWV7KsybYyiXcN3DUNTZk82hBk4r16joXYflZNrIFZfk0sr0N3Z82P5PrEahbARWh3maap2LapaPSweumhRvT5MSlTw5uyqwNUc6DRbgW1N0lGFXsnKRMloSuW7ldAiQBhG5CwonanFIAQBO1NKWaXEHgAoBstxEflCQ5S8KKx1ZCNLReQRlBXkvSg/pIu2bZkwybLCYBFohSnCyG/TjHAI7HiterSg8CKlwlcxCfkUBt3e6Yl600IjLbkHTsPNQEgacrOtjeC3qZjxQ8yH6oGWnHPfMfPEqNNii2DJLxXJhNEKkTWwjB3KBPSEFllE9JSr8q61rFYVfVbeRoPNiyEiH79JYvLCBf9PYD3Lui+v8R9AsbDgUenR7bgM9gBJoVUaq0XZ8VieboMyIaMEV3xsmXaNlczu5jAPQ4wneoqDvfacm3tZ9D2aFC8xjOBfFQSLfm1nE73BvgUp8QFAFNsadAqRgUDTqggveFC9cGW3o/IshU1TAVEBx8+Hbz1u5M/Pjh+8unwxuHgxtHzowPw8fnRbbYqJobackfH1Jv2wuysMA1vXyEJkejxFAGTRVLatWsU+AZj5L2o0UF1sV5dbizQghEQfXXWM3jyDtg33XDYYu7Tieie8f5WMxGp7RcgbxzjRnqQRN7JdnFcOsofp8hicXL46cnhF2O1vYCFYKpQLpfzwvSZWEsUCoV8QRyDtRqxIk+Ei3mhlBfFiHBCBq2zCh/Eqa5K0wWhXCgAqguKtRqc2zShJMuz1Ja3+IQeI1UZ/gmOQHTsM+mpb0NeBGyWB5EBC+Lwv3ee/ft+TMqLrkeJWwHnKE4hk/H+gJpeWW9zrdUr69VFrr3YIuck5EXkmPFThL3Zg0yKHpog0y5x0MChYXG5pmxd4n7hGvgS18K9Sxy8BeUieRg7cmlUNt2PMpz0GMqS22N1JqIQUlMkw4KTppFSdCiPxjat+oTcFA2vKH3xlzQFby21EMBK680FrmMEx5TSUIzDSBG+N8W7N4+ffHf85Mnw4d3B45sxC948wWUAHHtIrugwyAKogF5/SVDQRovGc0e4HuknHpG8OK2ZmuHYUkmk70zeCIFqgVij/6N6F1ocNUzjBfQEBf1cthf3HS/PpRXExwngZ0+G7mqG75oBgZX0MK4/fPzJ8MOvh+89fHbr88Hbnw3eee/k8MGzL//MknB4/+Hw3S+9op/sC9QX8gbLQB9Hb0UUjiQnR3o19/2Ne5xhOhxADM6lBer7G+9HjBFHKRgJLQOECxyJuzAiGlUmelzElcCHmF6gwhp+lXS06UDC62lmT1PCSd7ME1Mk+yjjtXo779qYMwE9QT9PCIfKk+p5KqzDrl0WxILocZk3ZAkd2Y6Eflk3O7LO+Qx64ZAQiWmdrhDK0vmWG6sLlUYowpxYtVRskWPIHlDd9kGkf7wiFOACuFNcndwLjYiNspD/FKlevHfBsllRSeFLv46ISaCqa1kMEBne9XzL7QHg9S/jxvPpBWUE464wPBpFveG4XovzYRzhQi+MswmB8mk58lisNNVtcpfDIOsKCU04BF7sUhPC4d3AM7C1q8E28KTWLFqWaaUWnJDjizUBLUMV4cOIBzI8mZIhazXcK5/gF7kXg7BLQvFyDGEvVepzXN9R57g6tDlYmwun1Yf3MWLVJBeqMgNxo9D7nIZOweTNCSF5Ui4NkTdNw9kei8fB9+dHHwy++Xpw8PGzW18dH74Nw+PHnx8/vTd49LfB/beGB4+AcnLnXyf/vDP4w8Hx049O/vrtBVR/MVBdFITiJNeiDH0XXz5UF2aLZ0N1T+gCqk8K1UdTcEIofqrieKjdzAy1UzVOhdqjrk0AtIcfHWQA2t2xQLs7HmifvP/t8eNbLwpoF8YD7cL1SFsZBdoFsXiBtC+Q9iuFtAsXSPunjLQTFecnjLRn43fZG2sAkNcsDUpXn6tYUEF0DMC4CQDZAlfgCTuypuuaAmjZgtxetVKB9vnsnIKzN2YmBNojgmlIewPjnbFAe3j7m8Hv7x4fPhr+6Wj4zi0oec+PDmBBz49uU8R9+OzvNwFuD+7dJHD7wXcnt/8BDz/cujv4zycnH/yWPN+7SegPvrpA3y8MfZcoqhbPRN/kljxfKL7si/Lp0gQX5UzoAn1Pir5ZWnIdDAlrkHYtO1wLzoalyueA5NmtjcfpG5lxeqrGqTh9pChNch9+97MJYTp9gSV5NF+gDXsErScExoD28WayQ3ZxPGQXr0f60yhkny6VLiD7BWR/pSC7+IpCdm/u/3vMnig5LwWz8+GXK0E1NGtYx07mj7d97aa5e25d2PysqnV7VVe9YGb7+CYIS2gg+gU7OShZnalYFkAn8rFr5k/OG5qxU8+2ekkudGRxpixulmbLBaXUmVHlkqpcVmdLs4qqQiFkRsm3WMREF/A1+ZIp2yQAGOPq4Vdn67KxldEaCzBVJF9mQaRoQnqVPRijJc2ynaukVXpPjHItoFxj8Pkq+WSbPdDxNUmc9VAzSPDR2fiY236FcdhvO5h6Q+tqGT/fEvwqFDcC56DXYwAz645C11vB+wB/IxagXnd+DR2Nfe+YxRpLKyjzgb5vq+V2MpvjfeU14JOTdT7tRRWg2fm16e8OaPqPcIBir/OaqBu2trXtZN1XsVyexjNYzIubipIvwiAP/biTV+XNMuDWzWmVfF0RGIf2oOG9jJOQpqLZrqxn1+MTv/wl/Q+XN+AwNTYAAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -603,7 +603,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -3432,4 +3432,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>281</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Gross Domestic Product (GDP)</Name>
+          <DisplayName>Gross Domestic Product (GDP)</DisplayName>
+          <SeriesId>310911001</SeriesId>
+          <Code>SR4824939</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>281</EndRow>
+          <EndCol>3</EndCol>
+          <Name>FAI: ytd: Individual Business: Individual Cooperative</Name>
+          <DisplayName>FAI: ytd: Individual Business: Individual Cooperative</DisplayName>
+          <SeriesId>310908401</SeriesId>
+          <Code>SR4825047</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>4</InitCol>
+          <EndRow>281</EndRow>
+          <EndCol>4</EndCol>
+          <Name>WPI: Primary Articles: Minerals: Metaillic: Iron Ore</Name>
+          <DisplayName>WPI: Primary Articles: Minerals: Metaillic: Iron Ore</DisplayName>
+          <SeriesId>310913501</SeriesId>
+          <Code>SR4825089</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41931E42-BF5B-4015-B056-46EF33BD4960}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_140.xlsx
+++ b/Testdata/TC_140.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NTYAAB+LCAAAAAAAAAPtW1tvG8cV/isLPqWAqV2uSFkURhtQpKSyJSVFpCs7L8ZydyRttdxl9yKJbzbQxnKcoDVcB8jVLXpJmjapi6SwY8nJfwlEynnyX+iZmb1zKXEVG4gL2TK8c25z5sycc74drNDr+12d28WWrZnGfK4wJeQ4bCimqhlb8znX2cwXZnKvS2hxX8H6mmzJXeyAMAdahj23b2vzuW3H6c3x/N7e3tTe9JRpbfGiIBT4q81GS9nGXTmvGbYjGwrOBVrq2Vo5CVXVbhM7sio7MtOcz9Vb9akq1pQa0JqyIW9ha2rBtTUD2/ai4WiOhm2iaWHZwdVa81dsYZI4NTNVQPwIPZRccDVdZXIxSUb35GBa3Na6WBIFUcgLs3lRaAvlOfJTnBLKl9/0FQNB1JBtp4WtXU2hhJYjd3tUXZiFf2X4W0R8qhDYCgMgoVVdXce7mo3VKtZ1O1NEeG8DK4oDq84WTAHxEV3P0PldWLbk3nZbc3ScVX3JtLACgTrX3Ct4b9Xy4tfuNYDb3tYsp1+T+5ltXbGxtdoj0cimKqGaaTgVHVvOlR5sKlZhz4EhOZaLET+GGSrVNFuBZ81wsSptyrodVYox0YZp7dg9WcErkLA8sbFn6KaswslyNNvRlHDSEQZas8weWITJF0xdXQKrnnAKI7BcNyDEZNoF09wJvUtjInoG6GmAPe3Kji8+QketbXNv1dD7LbdjK5bWwWptwZdO5SGSeZ521bUdswtehCTEaBGKqvLNJt+HP5BvSSaqYUXryvqaDqG0pWmwFSOgiuuYm5pTNXW3a9i+Zwkq2oB1tfF+sM5gjFZhiw0SetOoG748C3YqK66wbu4Fc44yaCgi5Iqt+Js+ykgK14Dmb+Ioh+4LWeWSpkM7iO5IhBo/G61tjJ3Ug8E4iFS+JdJgpIX+itvtQJJ1INN26aw24kM+gtMKJx78kgRoGnn60xaEOfoDfgRstGio4+V8JoLpInNJhRLiEyQEa9IXdNnYAeqG5myvVPy1pHAQi8BY+VEegvzt6XKfkoMoRWmobii6q2JWFurGJj2ixDe2qWPZaITUgEyXkGz02/0elGFbm3PgYT4HjXnOdixo/TlJMV3DsfqkfiDeEz1Lx3Y7Bp1A1ifW2bTwb1xAHP0l11Cqpjr5bCqLzhVDcyb30HQtVhQnV6HRI/XRtWuYVBpa+ifWV7KsybYyiXcN3DUNTZk82hBk4r16joXYflZNrIFZfk0sr0N3Z82P5PrEahbARWh3maap2LapaPSweumhRvT5MSlTw5uyqwNUc6DRbgW1N0lGFXsnKRMloSuW7ldAiQBhG5CwonanFIAQBO1NKWaXEHgAoBstxEflCQ5S8KKx1ZCNLReQRlBXkvSg/pIu2bZkwybLCYBFohSnCyG/TjHAI7HiterSg8CKlwlcxCfkUBt3e6Yl600IjLbkHTsPNQEgacrOtjeC3qZjxQ8yH6oGWnHPfMfPEqNNii2DJLxXJhNEKkTWwjB3KBPSEFllE9JSr8q61rFYVfVbeRoPNiyEiH79JYvLCBf9PYD3Lui+v8R9AsbDgUenR7bgM9gBJoVUaq0XZ8VieboMyIaMEV3xsmXaNlczu5jAPQ4wneoqDvfacm3tZ9D2aFC8xjOBfFQSLfm1nE73BvgUp8QFAFNsadAqRgUDTqggveFC9cGW3o/IshU1TAVEBx8+Hbz1u5M/Pjh+8unwxuHgxtHzowPw8fnRbbYqJobackfH1Jv2wuysMA1vXyEJkejxFAGTRVLatWsU+AZj5L2o0UF1sV5dbizQghEQfXXWM3jyDtg33XDYYu7Tieie8f5WMxGp7RcgbxzjRnqQRN7JdnFcOsofp8hicXL46cnhF2O1vYCFYKpQLpfzwvSZWEsUCoV8QRyDtRqxIk+Ei3mhlBfFiHBCBq2zCh/Eqa5K0wWhXCgAqguKtRqc2zShJMuz1Ja3+IQeI1UZ/gmOQHTsM+mpb0NeBGyWB5EBC+Lwv3ee/ft+TMqLrkeJWwHnKE4hk/H+gJpeWW9zrdUr69VFrr3YIuck5EXkmPFThL3Zg0yKHpog0y5x0MChYXG5pmxd4n7hGvgS18K9Sxy8BeUieRg7cmlUNt2PMpz0GMqS22N1JqIQUlMkw4KTppFSdCiPxjat+oTcFA2vKH3xlzQFby21EMBK680FrmMEx5TSUIzDSBG+N8W7N4+ffHf85Mnw4d3B45sxC948wWUAHHtIrugwyAKogF5/SVDQRovGc0e4HuknHpG8OK2ZmuHYUkmk70zeCIFqgVij/6N6F1ocNUzjBfQEBf1cthf3HS/PpRXExwngZ0+G7mqG75oBgZX0MK4/fPzJ8MOvh+89fHbr88Hbnw3eee/k8MGzL//MknB4/+Hw3S+9op/sC9QX8gbLQB9Hb0UUjiQnR3o19/2Ne5xhOhxADM6lBer7G+9HjBFHKRgJLQOECxyJuzAiGlUmelzElcCHmF6gwhp+lXS06UDC62lmT1PCSd7ME1Mk+yjjtXo779qYMwE9QT9PCIfKk+p5KqzDrl0WxILocZk3ZAkd2Y6Eflk3O7LO+Qx64ZAQiWmdrhDK0vmWG6sLlUYowpxYtVRskWPIHlDd9kGkf7wiFOACuFNcndwLjYiNspD/FKlevHfBsllRSeFLv46ISaCqa1kMEBne9XzL7QHg9S/jxvPpBWUE464wPBpFveG4XovzYRzhQi+MswmB8mk58lisNNVtcpfDIOsKCU04BF7sUhPC4d3AM7C1q8E28KTWLFqWaaUWnJDjizUBLUMV4cOIBzI8mZIhazXcK5/gF7kXg7BLQvFyDGEvVepzXN9R57g6tDlYmwun1Yf3MWLVJBeqMgNxo9D7nIZOweTNCSF5Ui4NkTdNw9kei8fB9+dHHwy++Xpw8PGzW18dH74Nw+PHnx8/vTd49LfB/beGB4+AcnLnXyf/vDP4w8Hx049O/vrtBVR/MVBdFITiJNeiDH0XXz5UF2aLZ0N1T+gCqk8K1UdTcEIofqrieKjdzAy1UzVOhdqjrk0AtIcfHWQA2t2xQLs7HmifvP/t8eNbLwpoF8YD7cL1SFsZBdoFsXiBtC+Q9iuFtAsXSPunjLQTFecnjLRn43fZG2sAkNcsDUpXn6tYUEF0DMC4CQDZAlfgCTuypuuaAmjZgtxetVKB9vnsnIKzN2YmBNojgmlIewPjnbFAe3j7m8Hv7x4fPhr+6Wj4zi0oec+PDmBBz49uU8R9+OzvNwFuD+7dJHD7wXcnt/8BDz/cujv4zycnH/yWPN+7SegPvrpA3y8MfZcoqhbPRN/kljxfKL7si/Lp0gQX5UzoAn1Pir5ZWnIdDAlrkHYtO1wLzoalyueA5NmtjcfpG5lxeqrGqTh9pChNch9+97MJYTp9gSV5NF+gDXsErScExoD28WayQ3ZxPGQXr0f60yhkny6VLiD7BWR/pSC7+IpCdm/u/3vMnig5LwWz8+GXK0E1NGtYx07mj7d97aa5e25d2PysqnV7VVe9YGb7+CYIS2gg+gU7OShZnalYFkAn8rFr5k/OG5qxU8+2ekkudGRxpixulmbLBaXUmVHlkqpcVmdLs4qqQiFkRsm3WMREF/A1+ZIp2yQAGOPq4Vdn67KxldEaCzBVJF9mQaRoQnqVPRijJc2ynaukVXpPjHItoFxj8Pkq+WSbPdDxNUmc9VAzSPDR2fiY236FcdhvO5h6Q+tqGT/fEvwqFDcC56DXYwAz645C11vB+wB/IxagXnd+DR2Nfe+YxRpLKyjzgb5vq+V2MpvjfeU14JOTdT7tRRWg2fm16e8OaPqPcIBir/OaqBu2trXtZN1XsVyexjNYzIubipIvwiAP/biTV+XNMuDWzWmVfF0RGIf2oOG9jJOQpqLZrqxn1+MTv/wl/Q+XN+AwNTYAAA==</t>
+          <t>gjQAAB+LCAAAAAAAAAPtW+tv29YV/1cIfeqAyCRlObGNaxayZHvaLNu1lDnpl4Air20uFKnyYVvfEmBrnKbFFmQp0Gc27NGtW7sU7ZA2dtr/pbDk5FP+hZ374FOULXoJsBQOjJj3PO4999zz+PGGQa/vdUxhBzuuYVtzBXlCKgjY0mzdsLbmCr63WZQvFl5X0MKehs011VE72ANhAbQsd3bPNeYK257XnRXF3d3did3JCdvZEkuSJItXGstNbRt31KJhuZ5qabgQaumnaxUUVNU7DeypuuqpTHOuUG/WJ6rY0GpAa6iWuoWdiXnfNSzsuguWZ3gGdommg1UPV2uNX7GNKaWJixMyEofokeS8b5g6k0tIMjqXg2Vxy+hgpSTJ00VppihNtmRpdmp6VipNlC9OvxkohoJoWXW9JnZ2DI0Smp7a6VJ1aUaalKWpaamExEwhmCtygIJWTX0d7xgu1qvYNN1cHhH5AVY0D3adz5kSEmO6fKKzm7DkqN3tluGZOJ8Z6415oW1dEMjvDvyGaCkX4a+pOVkKTIzmVtCi7WAN3HomS1fw7qrDvd3qLgO3tW04Xq+m9nLPddnFzmqX+C6fqoJqtuVVTOx4l7sQAliHCAGG4jk+RuIIZqRUM1wNng3Lx7qyqZpuXCnBRBu2c93tqhpegfQWyRy7lmmrOsShZ7ieoUWLDjHQmmN3YUZYfN429UWYlQtnMMKZ6xa4mCw7b9vXI+uymIieKj1fONOO6gXiQ3TU3LZ3Vy2z1/TbruYYbazX5gPpTB4iecq1q77r2R2wIiIhRotRdF1sNMQe/IHsTDNRDWtGRzXXTHClq0zCXAkCqvievWl4Vdv0O5YbWJaiog3YVwvvhfsMx2gVjtgirretuhXIM2dnspIK6/ZuuOYwg7oiRq64WnDow4y0cA1owSEOc+i5kF0uGiY0j/iJxKjJ2GhuY+xlBgbjIFInF0k7UuZ7K36nDUnWhkzboau6SIz4CKIVIh7sUiRoMUX605KkWfoDdoRstGDpo+UCJoLlYmsp8hQSUyQEezLnTdW6DtQNw9teqQR7yeAg5oGR8sM8BPnbNdUeJYdeitNQ3dJMX8esLNStTRqixDZ2qCPZaIi0DJmuINXqtXpdKNquMevBw1wB2vis6zkAFAqKZvuW5/RI/UAiFz1Nx/XbFl1ANcfW2XTwWz7gk96ib2lVWx9/NZ1557JleONbaPsOK4rjq1DvkfrouzVMKg0t/WPra3n25Dq5xDsW7tiWoY3vbXAysV4/w0bcIKvG1sAsv8aWN6G7s+ZHcn1sNQfAJbS7XMtUXNfWDBqsPD30mL44ImVqeFP1TQB2HjTarbD2psmo4l5Py8RJ6LJjBhVQIbDZBdys6Z0JDSAEwYYTmt0hBBHg6kYTiXF5goM0vGBtLavWlg9II6wraXpYf0mXbDmq5ZLthMAiVYqzhVBQpxjgUVjxWvVpILDiZQMXiSk51MKdru2oZgMcYyzysOOoCQBJQ/W2+Qh6m4m1wMlipBpqJS0LDD9NjDYptg2S8LxMpohUiOyFIfRIJqIhsssGpKVZVU2j7bCqGrTyLB4cWAQRg/pLNpcTLgZnAG9p0H1/iXsEukcDTqchKwcMFsCkkCrN9fJ0qTwzOQPIhowR3fGSY7uuULM7mMA9ATCd7mue8NpSbe1n0PaoU3jjGUM+LokWg1pOl3sDbEpSkgKAKbYMaBXDgiEnUlDe8KH6YMfsxWTZjpZtDUT7Hz3pv/3b4z88OHr82eDGQf/G4fPDfbDx+eFttismhlpq28TUmtb89LQ0WYZACkmIeE+kCJhsktKuXqXANxwj/lpHB9WFenVpeZ4WjJAYqLOeIZI3xp7tR8MmM58uRM9MDI6aiSitoADxcYIb60EKeYPbwUnpOH+UIvPF8cFnxwdfjNTmDovAlDwzQ96PT8Va8C4sF+XSCKy1nCjyRLhclKaKpVJMOCWD1lmFD/1U1xV4056R4UVRDou1HsZtllCaxWdqqVtiSo+Rqgz/hCEQHwdMGvUtyIuQzfIgNmBOHPznztN/309Ice9ySnIWMI7iFLKYGAzo1CvrLaG5enm9uiC0FpokTiJeTI5NfoIwXz3MpHjQhJl2QYAGDg1LKDRU54LwC9/CF4Qm7l4Q4C2oEMvDRMhlUdly/9PEaYuhLPldVmdiChE1QzIqOFkaGUWH8qhvs6pPxM3Q4EXpiz9nKfC91CIAyy9DwjClNJTgMFKMz5d47+bR4x+OHj8ePLzb//ZmYga+TngZAGEPyRUfhlkAFZD3lxQFbTSpP69L12L9hBPJi9OabVieq0yV6DsTHyFQlcls9Deqd6DF0Ympv4CeoqCfq+7CnsfzXFlBYpIAdnZV6K529K4ZElhJj/z67JNPBx99M3j/4dNbn/ff+Xv/3fePDx48/fJPLAkH9x8O3vuSF/10X6C2kDdYBvoEeiuiCSQ5BdKrhR9v3BMs2xMAYgg+LVA/3vggNhkxlIKRaGaAcKEhSROGROPKRE+ImRLakNALVVjDr5KONhlK8J5mdw0tWuTNIpmKZB9lvFZvFX0XCzagJ+jnKeFIeVw9rsI67NolqSSXOJdZQ7bQVt2Y65dMu62aQsCgFw4pkYTWyQqRLF1vaXl1vrIciTAjVh0dOyQM2QMKICTpMHU3GAWhFqMAF4Ce5pvkjmhIbJgVzhyrZCK/bNms6KQIZl9NJCRQ1XccBo4sfrHf9LsAfoOLudF8elkZw7srDJvGEXA0rteSfBjHuNAXk2xCoHxamjiLlam6S+51GHxdIa6JhsBLXHCCO/jdPQNeOwYciUjqzoLj2E5m8Yk4gVgDkDNUFDHyeChDz5ShbD06q4AQFLwXg7anpPKlBNperNRnhZ6nzwp1aHmwNx8iN4D6CWLVJperKgN0wzD8jBOdgM8bY8LztFwWOm/Ylrc9EpuD7c8PP+x/901//5Ont74+OngHhkfffn705F7/0V/7998e7D8CyvGdfx3/807/9/tHTz4+/sv357D9xcB2+u8qY1yRMiRefvmwXZounw7budA5bB8Xtg+n4Jiw/ETF0bC7kRt2Z2qcCLuHTRsDdA8+3s8BujsjQXdnNOg+/uD7o29vvSjQLY8G3fK1WFsZBt1yqXyOus9R9yuFuuVz1P2qoO5U9fk/Rt3TyTvujTUAy2uOAWWsJ1QcqCYmBpDcALDsgCnwhD3VME1DA+TsQJ6vOpmg+2zznIC5Ny6OCbqHBLNQ9wbG10eC7sHt7/q/u3t08Gjwx8PBu7eg/D0/3IcNPT+8TdH3wdO/3QTo3b93k0DvBz8c3/4HPDy7dbf/1afHH/6GPN+7SegPvj5H4i8MiU9RhF06FYmT2/OiXH7ZF+iTU2NcoDOhcyQ+LhJnaSm0MSSsRVq36glNiA1HV88Az/PPNhqzb+TG7JkaJ2L2oaI0BmR/duOrMSF76iPBYeSeEhgB4EdPkx++l0bD99K1WH8ahu+TU1Pn8P0cvr9S8L30E4DvfO2fPH5PlZ+Xgt/F6OuWsDLaNWxiL9/n4GKk3bB3zqwLh59Xte6umjp3Zr4PdEK3RBPEv4kngfKSPolnMVhxHMBc5OvZ3N+wB199ravWVk4j2Q6pIvl8ClbnH5kvGo7rXSGNij8xytWQcpWB1yvkQ2r2QMdXldI0x6wgIcanFxN2Bjntsf+xYJvLRsfI+VGVFOR9chJwZrfL4F09XwSRnrOC9wB8xmaAatn+NfQT9hVintlYIEORDfXJl7+usbXt5TXsUlvFOm5LRa2NS8WyLk0XZzCeLMoy/K1qJRJY5LthPjlUFAPv5lxEDA4s+p9Eyn8B90dTy4I0AAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -603,7 +603,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -3432,59 +3432,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>281</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Gross Domestic Product (GDP)</Name>
-          <DisplayName>Gross Domestic Product (GDP)</DisplayName>
-          <SeriesId>310911001</SeriesId>
-          <Code>SR4824939</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>281</EndRow>
-          <EndCol>3</EndCol>
-          <Name>FAI: ytd: Individual Business: Individual Cooperative</Name>
-          <DisplayName>FAI: ytd: Individual Business: Individual Cooperative</DisplayName>
-          <SeriesId>310908401</SeriesId>
-          <Code>SR4825047</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>4</InitCol>
-          <EndRow>281</EndRow>
-          <EndCol>4</EndCol>
-          <Name>WPI: Primary Articles: Minerals: Metaillic: Iron Ore</Name>
-          <DisplayName>WPI: Primary Articles: Minerals: Metaillic: Iron Ore</DisplayName>
-          <SeriesId>310913501</SeriesId>
-          <Code>SR4825089</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41931E42-BF5B-4015-B056-46EF33BD4960}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>